--- a/results/mp/logistic/corona/confidence/126/masking-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/126/masking-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="118">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,16 +40,28 @@
     <t>name</t>
   </si>
   <si>
+    <t>arrested</t>
+  </si>
+  <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>kill</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>fraud</t>
+    <t>die</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>war</t>
   </si>
   <si>
     <t>collapse</t>
@@ -58,87 +70,75 @@
     <t>died</t>
   </si>
   <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>forced</t>
+    <t>infected</t>
   </si>
   <si>
     <t>warning</t>
   </si>
   <si>
-    <t>war</t>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>lowest</t>
   </si>
   <si>
     <t>hell</t>
   </si>
   <si>
-    <t>infected</t>
-  </si>
-  <si>
-    <t>lowest</t>
+    <t>sc</t>
   </si>
   <si>
     <t>problem</t>
   </si>
   <si>
-    <t>drop</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
+    <t>fears</t>
+  </si>
+  <si>
     <t>cancelled</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>sc</t>
+    <t>falling</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
-    <t>falling</t>
-  </si>
-  <si>
     <t>recession</t>
   </si>
   <si>
+    <t>selfish</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
     <t>sick</t>
   </si>
   <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
     <t>shit</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>saudi</t>
-  </si>
-  <si>
-    <t>shame</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>fuck</t>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>lower</t>
   </si>
   <si>
     <t>cut</t>
   </si>
   <si>
-    <t>selfish</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>lower</t>
-  </si>
-  <si>
     <t>empty</t>
   </si>
   <si>
@@ -160,211 +160,214 @@
     <t>of</t>
   </si>
   <si>
+    <t>co</t>
+  </si>
+  <si>
     <t>a</t>
   </si>
   <si>
     <t>19</t>
   </si>
   <si>
-    <t>co</t>
+    <t>to</t>
   </si>
   <si>
     <t>.</t>
   </si>
   <si>
-    <t>to</t>
-  </si>
-  <si>
     <t>the</t>
   </si>
   <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>god</t>
+  </si>
+  <si>
+    <t>funny</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>team</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>keep</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>your</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
     <t>corona</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>god</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>your</t>
-  </si>
-  <si>
-    <t>you</t>
-  </si>
-  <si>
-    <t>for</t>
-  </si>
-  <si>
-    <t>and</t>
-  </si>
-  <si>
-    <t>?</t>
   </si>
 </sst>
 </file>
@@ -722,7 +725,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q67"/>
+  <dimension ref="A1:Q68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -730,10 +733,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -791,13 +794,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8421052631578947</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C3">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D3">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -809,19 +812,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K3">
-        <v>0.9491525423728814</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L3">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="M3">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -841,13 +844,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8116438356164384</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C4">
-        <v>237</v>
+        <v>29</v>
       </c>
       <c r="D4">
-        <v>237</v>
+        <v>29</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -859,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K4">
-        <v>0.9347826086956522</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L4">
-        <v>43</v>
+        <v>110</v>
       </c>
       <c r="M4">
-        <v>43</v>
+        <v>110</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -883,7 +886,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -891,13 +894,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7941176470588235</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C5">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D5">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -909,19 +912,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K5">
-        <v>0.9083333333333333</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L5">
-        <v>109</v>
+        <v>54</v>
       </c>
       <c r="M5">
-        <v>109</v>
+        <v>54</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -933,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -941,13 +944,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7777777777777778</v>
+        <v>0.8082191780821918</v>
       </c>
       <c r="C6">
-        <v>28</v>
+        <v>236</v>
       </c>
       <c r="D6">
-        <v>28</v>
+        <v>236</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -959,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K6">
         <v>0.8947368421052632</v>
@@ -991,13 +994,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7333333333333333</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C7">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D7">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1009,10 +1012,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K7">
         <v>0.8846153846153846</v>
@@ -1041,13 +1044,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7307692307692307</v>
+        <v>0.7837837837837838</v>
       </c>
       <c r="C8">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D8">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1059,19 +1062,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K8">
-        <v>0.8666666666666667</v>
+        <v>0.8482142857142857</v>
       </c>
       <c r="L8">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="M8">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1083,7 +1086,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1091,13 +1094,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7297297297297297</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C9">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D9">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1109,19 +1112,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K9">
-        <v>0.8571428571428571</v>
+        <v>0.8328981723237598</v>
       </c>
       <c r="L9">
-        <v>96</v>
+        <v>319</v>
       </c>
       <c r="M9">
-        <v>96</v>
+        <v>319</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1133,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>16</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1141,13 +1144,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7241379310344828</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="C10">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D10">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1159,19 +1162,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K10">
-        <v>0.8407310704960835</v>
+        <v>0.8170731707317073</v>
       </c>
       <c r="L10">
-        <v>322</v>
+        <v>67</v>
       </c>
       <c r="M10">
-        <v>322</v>
+        <v>67</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1183,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>61</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1191,13 +1194,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.72</v>
+        <v>0.7</v>
       </c>
       <c r="C11">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D11">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1209,19 +1212,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K11">
-        <v>0.8333333333333334</v>
+        <v>0.8125</v>
       </c>
       <c r="L11">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M11">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1241,13 +1244,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7105263157894737</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C12">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D12">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1259,19 +1262,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K12">
-        <v>0.8113207547169812</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L12">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="M12">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1283,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1291,13 +1294,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6956521739130435</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C13">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D13">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1309,19 +1312,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K13">
-        <v>0.8055555555555556</v>
+        <v>0.8018867924528302</v>
       </c>
       <c r="L13">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="M13">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1333,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1341,13 +1344,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6842105263157895</v>
+        <v>0.68</v>
       </c>
       <c r="C14">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D14">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1359,31 +1362,31 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K14">
-        <v>0.7878787878787878</v>
+        <v>0.796875</v>
       </c>
       <c r="L14">
+        <v>102</v>
+      </c>
+      <c r="M14">
+        <v>102</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14">
         <v>26</v>
-      </c>
-      <c r="M14">
-        <v>26</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1391,13 +1394,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6521739130434783</v>
+        <v>0.6101694915254238</v>
       </c>
       <c r="C15">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="D15">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1409,19 +1412,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K15">
-        <v>0.7872340425531915</v>
+        <v>0.7906976744186046</v>
       </c>
       <c r="L15">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="M15">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1433,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1441,13 +1444,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6333333333333333</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="C16">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D16">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1459,19 +1462,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K16">
-        <v>0.7804878048780488</v>
+        <v>0.7872340425531915</v>
       </c>
       <c r="L16">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="M16">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1483,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1491,13 +1494,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6101694915254238</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="C17">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="D17">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1509,19 +1512,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K17">
         <v>0.7777777777777778</v>
       </c>
       <c r="L17">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="M17">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1533,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1541,13 +1544,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5465116279069767</v>
+        <v>0.5343915343915344</v>
       </c>
       <c r="C18">
-        <v>282</v>
+        <v>101</v>
       </c>
       <c r="D18">
-        <v>282</v>
+        <v>101</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1559,19 +1562,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>234</v>
+        <v>88</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K18">
-        <v>0.775</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L18">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="M18">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1583,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>36</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1591,37 +1594,37 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5384615384615384</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="C19">
+        <v>16</v>
+      </c>
+      <c r="D19">
+        <v>16</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19">
         <v>14</v>
       </c>
-      <c r="D19">
-        <v>14</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>12</v>
-      </c>
       <c r="J19" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K19">
-        <v>0.7746478873239436</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L19">
-        <v>110</v>
+        <v>45</v>
       </c>
       <c r="M19">
-        <v>110</v>
+        <v>45</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1633,7 +1636,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>32</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1641,13 +1644,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5098039215686274</v>
+        <v>0.5290697674418605</v>
       </c>
       <c r="C20">
-        <v>26</v>
+        <v>273</v>
       </c>
       <c r="D20">
-        <v>26</v>
+        <v>273</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1659,19 +1662,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>25</v>
+        <v>243</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K20">
-        <v>0.7734375</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="L20">
-        <v>99</v>
+        <v>30</v>
       </c>
       <c r="M20">
-        <v>99</v>
+        <v>30</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1683,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1691,13 +1694,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4973544973544973</v>
+        <v>0.5098039215686274</v>
       </c>
       <c r="C21">
-        <v>94</v>
+        <v>26</v>
       </c>
       <c r="D21">
-        <v>94</v>
+        <v>26</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1709,19 +1712,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K21">
-        <v>0.7727272727272727</v>
+        <v>0.76875</v>
       </c>
       <c r="L21">
-        <v>17</v>
+        <v>123</v>
       </c>
       <c r="M21">
-        <v>17</v>
+        <v>123</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1733,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>5</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1741,13 +1744,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4765100671140939</v>
+        <v>0.5</v>
       </c>
       <c r="C22">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="D22">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1759,19 +1762,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K22">
-        <v>0.7586206896551724</v>
+        <v>0.7676056338028169</v>
       </c>
       <c r="L22">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="M22">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1783,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>14</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1791,13 +1794,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.475</v>
+        <v>0.5</v>
       </c>
       <c r="C23">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D23">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1809,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K23">
-        <v>0.7407407407407407</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="L23">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M23">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1833,7 +1836,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1841,13 +1844,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4516129032258064</v>
+        <v>0.4899328859060403</v>
       </c>
       <c r="C24">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="D24">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1859,19 +1862,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K24">
-        <v>0.7301587301587301</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L24">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="M24">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1883,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1891,49 +1894,49 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4375</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="C25">
+        <v>15</v>
+      </c>
+      <c r="D25">
+        <v>15</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>16</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K25">
+        <v>0.7083333333333334</v>
+      </c>
+      <c r="L25">
+        <v>34</v>
+      </c>
+      <c r="M25">
+        <v>34</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>14</v>
-      </c>
-      <c r="D25">
-        <v>14</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>18</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K25">
-        <v>0.7209302325581395</v>
-      </c>
-      <c r="L25">
-        <v>31</v>
-      </c>
-      <c r="M25">
-        <v>31</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1941,13 +1944,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4358974358974359</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="C26">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D26">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1959,19 +1962,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K26">
-        <v>0.717948717948718</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="L26">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="M26">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1991,13 +1994,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4266666666666667</v>
+        <v>0.4358974358974359</v>
       </c>
       <c r="C27">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D27">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2009,19 +2012,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K27">
-        <v>0.7142857142857143</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="L27">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M27">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2033,7 +2036,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2041,13 +2044,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.4193548387096774</v>
+        <v>0.4133333333333333</v>
       </c>
       <c r="C28">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="D28">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2059,19 +2062,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K28">
-        <v>0.7</v>
+        <v>0.6825396825396826</v>
       </c>
       <c r="L28">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="M28">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2083,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2091,38 +2094,38 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.4054054054054054</v>
+        <v>0.40625</v>
       </c>
       <c r="C29">
+        <v>13</v>
+      </c>
+      <c r="D29">
+        <v>13</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>19</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K29">
+        <v>0.6818181818181818</v>
+      </c>
+      <c r="L29">
         <v>15</v>
       </c>
-      <c r="D29">
+      <c r="M29">
         <v>15</v>
       </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>22</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="K29">
-        <v>0.6875</v>
-      </c>
-      <c r="L29">
-        <v>33</v>
-      </c>
-      <c r="M29">
-        <v>33</v>
-      </c>
       <c r="N29">
         <v>1</v>
       </c>
@@ -2133,7 +2136,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2141,13 +2144,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.4</v>
+        <v>0.4054054054054054</v>
       </c>
       <c r="C30">
-        <v>144</v>
+        <v>15</v>
       </c>
       <c r="D30">
-        <v>144</v>
+        <v>15</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2159,19 +2162,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>216</v>
+        <v>22</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K30">
-        <v>0.6857142857142857</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="L30">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="M30">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2183,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2191,13 +2194,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.3846153846153846</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="C31">
-        <v>15</v>
+        <v>140</v>
       </c>
       <c r="D31">
-        <v>15</v>
+        <v>140</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2209,19 +2212,19 @@
         <v>0</v>
       </c>
       <c r="H31">
+        <v>220</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K31">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="L31">
         <v>24</v>
       </c>
-      <c r="J31" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K31">
-        <v>0.6818181818181818</v>
-      </c>
-      <c r="L31">
-        <v>15</v>
-      </c>
       <c r="M31">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2233,7 +2236,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2241,13 +2244,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.3818181818181818</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="C32">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D32">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2259,19 +2262,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K32">
-        <v>0.6441176470588236</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L32">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="M32">
-        <v>219</v>
+        <v>16</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2283,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>121</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2291,13 +2294,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.3611111111111111</v>
+        <v>0.3818181818181818</v>
       </c>
       <c r="C33">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D33">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2309,13 +2312,13 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K33">
-        <v>0.625</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="L33">
         <v>15</v>
@@ -2333,7 +2336,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2341,13 +2344,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.3454545454545455</v>
+        <v>0.375</v>
       </c>
       <c r="C34">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D34">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2359,19 +2362,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K34">
-        <v>0.5864406779661017</v>
+        <v>0.65</v>
       </c>
       <c r="L34">
-        <v>173</v>
+        <v>26</v>
       </c>
       <c r="M34">
-        <v>173</v>
+        <v>26</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2383,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>122</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2391,13 +2394,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.3214285714285715</v>
+        <v>0.3454545454545455</v>
       </c>
       <c r="C35">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D35">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2409,19 +2412,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K35">
-        <v>0.5851063829787234</v>
+        <v>0.6411764705882353</v>
       </c>
       <c r="L35">
-        <v>55</v>
+        <v>218</v>
       </c>
       <c r="M35">
-        <v>55</v>
+        <v>218</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2433,7 +2436,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>39</v>
+        <v>122</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2441,13 +2444,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.2555555555555555</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="C36">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D36">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2459,19 +2462,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K36">
-        <v>0.5833333333333334</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="L36">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="M36">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2483,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2491,13 +2494,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.25</v>
+        <v>0.246031746031746</v>
       </c>
       <c r="C37">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D37">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2509,19 +2512,19 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K37">
-        <v>0.5774058577405857</v>
+        <v>0.5851063829787234</v>
       </c>
       <c r="L37">
-        <v>138</v>
+        <v>55</v>
       </c>
       <c r="M37">
-        <v>138</v>
+        <v>55</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2533,7 +2536,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>101</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2541,13 +2544,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.2467532467532468</v>
+        <v>0.2077922077922078</v>
       </c>
       <c r="C38">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D38">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2559,19 +2562,19 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K38">
-        <v>0.5757575757575758</v>
+        <v>0.5846153846153846</v>
       </c>
       <c r="L38">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="M38">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2583,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2591,38 +2594,38 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.175</v>
+        <v>0.1625</v>
       </c>
       <c r="C39">
+        <v>13</v>
+      </c>
+      <c r="D39">
+        <v>13</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39" t="b">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>67</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K39">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="L39">
         <v>14</v>
       </c>
-      <c r="D39">
+      <c r="M39">
         <v>14</v>
       </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>1</v>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39">
-        <v>66</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K39">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="L39">
-        <v>16</v>
-      </c>
-      <c r="M39">
-        <v>16</v>
-      </c>
       <c r="N39">
         <v>1</v>
       </c>
@@ -2633,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2641,13 +2644,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.1662198391420912</v>
+        <v>0.128686327077748</v>
       </c>
       <c r="C40">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="D40">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2659,19 +2662,19 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K40">
-        <v>0.5714285714285714</v>
+        <v>0.576271186440678</v>
       </c>
       <c r="L40">
-        <v>16</v>
+        <v>170</v>
       </c>
       <c r="M40">
-        <v>16</v>
+        <v>170</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2683,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>12</v>
+        <v>125</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2691,13 +2694,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.04666666666666667</v>
+        <v>0.07333333333333333</v>
       </c>
       <c r="C41">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D41">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2709,19 +2712,19 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K41">
-        <v>0.5692307692307692</v>
+        <v>0.5732217573221757</v>
       </c>
       <c r="L41">
-        <v>37</v>
+        <v>137</v>
       </c>
       <c r="M41">
-        <v>37</v>
+        <v>137</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2733,7 +2736,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>28</v>
+        <v>102</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2741,19 +2744,19 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.009278785322648671</v>
+        <v>0.01094736842105263</v>
       </c>
       <c r="C42">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D42">
         <v>30</v>
       </c>
       <c r="E42">
-        <v>0.27</v>
+        <v>0.13</v>
       </c>
       <c r="F42">
-        <v>0.73</v>
+        <v>0.87</v>
       </c>
       <c r="G42" t="b">
         <v>1</v>
@@ -2762,16 +2765,16 @@
         <v>2349</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K42">
-        <v>0.5652173913043478</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L42">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M42">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2783,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2791,37 +2794,37 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.009122502172024326</v>
+        <v>0.009990331936835321</v>
       </c>
       <c r="C43">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D43">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E43">
-        <v>0.25</v>
+        <v>0.11</v>
       </c>
       <c r="F43">
-        <v>0.75</v>
+        <v>0.89</v>
       </c>
       <c r="G43" t="b">
         <v>1</v>
       </c>
       <c r="H43">
-        <v>2281</v>
+        <v>3072</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K43">
-        <v>0.54</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L43">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="M43">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2833,7 +2836,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2841,37 +2844,37 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.008878504672897197</v>
+        <v>0.008260869565217391</v>
       </c>
       <c r="C44">
         <v>19</v>
       </c>
       <c r="D44">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E44">
-        <v>0.14</v>
+        <v>0.32</v>
       </c>
       <c r="F44">
-        <v>0.86</v>
+        <v>0.6799999999999999</v>
       </c>
       <c r="G44" t="b">
         <v>1</v>
       </c>
       <c r="H44">
-        <v>2121</v>
+        <v>2281</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K44">
-        <v>0.5185185185185185</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="L44">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M44">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2883,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -2891,37 +2894,37 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.00837898807605543</v>
+        <v>0.007476635514018692</v>
       </c>
       <c r="C45">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D45">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E45">
-        <v>0.13</v>
+        <v>0.16</v>
       </c>
       <c r="F45">
-        <v>0.87</v>
+        <v>0.84</v>
       </c>
       <c r="G45" t="b">
         <v>1</v>
       </c>
       <c r="H45">
-        <v>3077</v>
+        <v>2124</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K45">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="L45">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="M45">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2933,7 +2936,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -2941,37 +2944,37 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.006031363088057901</v>
+        <v>0.005103224309904894</v>
       </c>
       <c r="C46">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D46">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="E46">
-        <v>0.42</v>
+        <v>0.44</v>
       </c>
       <c r="F46">
-        <v>0.5800000000000001</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="G46" t="b">
         <v>1</v>
       </c>
       <c r="H46">
-        <v>4944</v>
+        <v>4289</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K46">
         <v>0.5</v>
       </c>
       <c r="L46">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M46">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2983,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -2991,37 +2994,37 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.00510677808727948</v>
+        <v>0.004625905068382945</v>
       </c>
       <c r="C47">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D47">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E47">
-        <v>0.48</v>
+        <v>0.51</v>
       </c>
       <c r="F47">
-        <v>0.52</v>
+        <v>0.49</v>
       </c>
       <c r="G47" t="b">
         <v>1</v>
       </c>
       <c r="H47">
-        <v>4286</v>
+        <v>4949</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K47">
-        <v>0.4509803921568628</v>
+        <v>0.5</v>
       </c>
       <c r="L47">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="M47">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -3033,7 +3036,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -3041,185 +3044,161 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.005056398288603656</v>
+        <v>0.004273504273504274</v>
       </c>
       <c r="C48">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D48">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="E48">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
       <c r="F48">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="G48" t="b">
         <v>1</v>
       </c>
       <c r="H48">
-        <v>5116</v>
+        <v>5126</v>
       </c>
       <c r="J48" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K48">
+        <v>0.5</v>
+      </c>
+      <c r="L48">
+        <v>14</v>
+      </c>
+      <c r="M48">
+        <v>14</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="10:17">
+      <c r="J49" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="K48">
-        <v>0.449438202247191</v>
-      </c>
-      <c r="L48">
-        <v>40</v>
-      </c>
-      <c r="M48">
-        <v>40</v>
-      </c>
-      <c r="N48">
-        <v>1</v>
-      </c>
-      <c r="O48">
-        <v>0</v>
-      </c>
-      <c r="P48" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q48">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17">
-      <c r="A49" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B49">
-        <v>0.004080351537978657</v>
-      </c>
-      <c r="C49">
-        <v>13</v>
-      </c>
-      <c r="D49">
+      <c r="K49">
+        <v>0.4761904761904762</v>
+      </c>
+      <c r="L49">
+        <v>20</v>
+      </c>
+      <c r="M49">
+        <v>20</v>
+      </c>
+      <c r="N49">
+        <v>1</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="10:17">
+      <c r="J50" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K50">
+        <v>0.4719101123595505</v>
+      </c>
+      <c r="L50">
+        <v>42</v>
+      </c>
+      <c r="M50">
+        <v>42</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="51" spans="10:17">
+      <c r="J51" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K51">
+        <v>0.4509803921568628</v>
+      </c>
+      <c r="L51">
+        <v>23</v>
+      </c>
+      <c r="M51">
+        <v>23</v>
+      </c>
+      <c r="N51">
+        <v>1</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q51">
         <v>28</v>
       </c>
-      <c r="E49">
-        <v>0.54</v>
-      </c>
-      <c r="F49">
-        <v>0.46</v>
-      </c>
-      <c r="G49" t="b">
-        <v>1</v>
-      </c>
-      <c r="H49">
-        <v>3173</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="K49">
-        <v>0.4222222222222222</v>
-      </c>
-      <c r="L49">
-        <v>19</v>
-      </c>
-      <c r="M49">
-        <v>19</v>
-      </c>
-      <c r="N49">
-        <v>1</v>
-      </c>
-      <c r="O49">
-        <v>0</v>
-      </c>
-      <c r="P49" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q49">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17">
-      <c r="J50" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="K50">
-        <v>0.3809523809523809</v>
-      </c>
-      <c r="L50">
-        <v>16</v>
-      </c>
-      <c r="M50">
-        <v>16</v>
-      </c>
-      <c r="N50">
-        <v>1</v>
-      </c>
-      <c r="O50">
-        <v>0</v>
-      </c>
-      <c r="P50" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q50">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17">
-      <c r="J51" s="1" t="s">
+    </row>
+    <row r="52" spans="10:17">
+      <c r="J52" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="K51">
+      <c r="K52">
+        <v>0.3777777777777778</v>
+      </c>
+      <c r="L52">
+        <v>17</v>
+      </c>
+      <c r="M52">
+        <v>17</v>
+      </c>
+      <c r="N52">
+        <v>1</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="53" spans="10:17">
+      <c r="J53" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K53">
         <v>0.3287671232876712</v>
-      </c>
-      <c r="L51">
-        <v>24</v>
-      </c>
-      <c r="M51">
-        <v>24</v>
-      </c>
-      <c r="N51">
-        <v>1</v>
-      </c>
-      <c r="O51">
-        <v>0</v>
-      </c>
-      <c r="P51" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q51">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17">
-      <c r="J52" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="K52">
-        <v>0.3125</v>
-      </c>
-      <c r="L52">
-        <v>20</v>
-      </c>
-      <c r="M52">
-        <v>20</v>
-      </c>
-      <c r="N52">
-        <v>1</v>
-      </c>
-      <c r="O52">
-        <v>0</v>
-      </c>
-      <c r="P52" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q52">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17">
-      <c r="J53" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="K53">
-        <v>0.3076923076923077</v>
       </c>
       <c r="L53">
         <v>24</v>
@@ -3237,345 +3216,345 @@
         <v>0</v>
       </c>
       <c r="Q53">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="54" spans="10:17">
+      <c r="J54" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K54">
+        <v>0.3076923076923077</v>
+      </c>
+      <c r="L54">
+        <v>24</v>
+      </c>
+      <c r="M54">
+        <v>24</v>
+      </c>
+      <c r="N54">
+        <v>1</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q54">
         <v>54</v>
       </c>
     </row>
-    <row r="54" spans="1:17">
-      <c r="J54" s="1" t="s">
+    <row r="55" spans="10:17">
+      <c r="J55" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="K54">
-        <v>0.3050847457627119</v>
-      </c>
-      <c r="L54">
-        <v>18</v>
-      </c>
-      <c r="M54">
-        <v>18</v>
-      </c>
-      <c r="N54">
-        <v>1</v>
-      </c>
-      <c r="O54">
-        <v>0</v>
-      </c>
-      <c r="P54" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q54">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17">
-      <c r="J55" s="1" t="s">
+      <c r="K55">
+        <v>0.288135593220339</v>
+      </c>
+      <c r="L55">
+        <v>17</v>
+      </c>
+      <c r="M55">
+        <v>17</v>
+      </c>
+      <c r="N55">
+        <v>1</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="56" spans="10:17">
+      <c r="J56" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="K55">
-        <v>0.2950819672131147</v>
-      </c>
-      <c r="L55">
-        <v>18</v>
-      </c>
-      <c r="M55">
-        <v>18</v>
-      </c>
-      <c r="N55">
-        <v>1</v>
-      </c>
-      <c r="O55">
-        <v>0</v>
-      </c>
-      <c r="P55" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q55">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17">
-      <c r="J56" s="1" t="s">
+      <c r="K56">
+        <v>0.265625</v>
+      </c>
+      <c r="L56">
+        <v>17</v>
+      </c>
+      <c r="M56">
+        <v>17</v>
+      </c>
+      <c r="N56">
+        <v>1</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="57" spans="10:17">
+      <c r="J57" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="K56">
-        <v>0.2456140350877193</v>
-      </c>
-      <c r="L56">
-        <v>14</v>
-      </c>
-      <c r="M56">
-        <v>14</v>
-      </c>
-      <c r="N56">
-        <v>1</v>
-      </c>
-      <c r="O56">
-        <v>0</v>
-      </c>
-      <c r="P56" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q56">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17">
-      <c r="J57" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="K57">
-        <v>0.1203703703703704</v>
+        <v>0.2131147540983606</v>
       </c>
       <c r="L57">
         <v>13</v>
       </c>
       <c r="M57">
+        <v>13</v>
+      </c>
+      <c r="N57">
+        <v>1</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="58" spans="10:17">
+      <c r="J58" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K58">
+        <v>0.1129032258064516</v>
+      </c>
+      <c r="L58">
         <v>14</v>
       </c>
-      <c r="N57">
+      <c r="M58">
+        <v>14</v>
+      </c>
+      <c r="N58">
+        <v>1</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="59" spans="10:17">
+      <c r="J59" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K59">
+        <v>0.08648648648648649</v>
+      </c>
+      <c r="L59">
+        <v>16</v>
+      </c>
+      <c r="M59">
+        <v>16</v>
+      </c>
+      <c r="N59">
+        <v>1</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="60" spans="10:17">
+      <c r="J60" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="K60">
+        <v>0.02564102564102564</v>
+      </c>
+      <c r="L60">
+        <v>14</v>
+      </c>
+      <c r="M60">
+        <v>15</v>
+      </c>
+      <c r="N60">
         <v>0.93</v>
       </c>
-      <c r="O57">
+      <c r="O60">
         <v>0.06999999999999995</v>
       </c>
-      <c r="P57" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q57">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17">
-      <c r="J58" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="K58">
-        <v>0.07027027027027027</v>
-      </c>
-      <c r="L58">
-        <v>13</v>
-      </c>
-      <c r="M58">
-        <v>13</v>
-      </c>
-      <c r="N58">
-        <v>1</v>
-      </c>
-      <c r="O58">
-        <v>0</v>
-      </c>
-      <c r="P58" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q58">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17">
-      <c r="J59" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="K59">
-        <v>0.02742230347349177</v>
-      </c>
-      <c r="L59">
+      <c r="P60" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q60">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="61" spans="10:17">
+      <c r="J61" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K61">
+        <v>0.02251876563803169</v>
+      </c>
+      <c r="L61">
+        <v>27</v>
+      </c>
+      <c r="M61">
+        <v>28</v>
+      </c>
+      <c r="N61">
+        <v>0.96</v>
+      </c>
+      <c r="O61">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P61" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q61">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="62" spans="10:17">
+      <c r="J62" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="K62">
+        <v>0.008258258258258258</v>
+      </c>
+      <c r="L62">
+        <v>22</v>
+      </c>
+      <c r="M62">
+        <v>31</v>
+      </c>
+      <c r="N62">
+        <v>0.71</v>
+      </c>
+      <c r="O62">
+        <v>0.29</v>
+      </c>
+      <c r="P62" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q62">
+        <v>2642</v>
+      </c>
+    </row>
+    <row r="63" spans="10:17">
+      <c r="J63" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K63">
+        <v>0.006165228113440197</v>
+      </c>
+      <c r="L63">
         <v>15</v>
       </c>
-      <c r="M59">
-        <v>15</v>
-      </c>
-      <c r="N59">
-        <v>1</v>
-      </c>
-      <c r="O59">
-        <v>0</v>
-      </c>
-      <c r="P59" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q59">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17">
-      <c r="J60" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="K60">
-        <v>0.02168473728106756</v>
-      </c>
-      <c r="L60">
-        <v>26</v>
-      </c>
-      <c r="M60">
+      <c r="M63">
         <v>27</v>
       </c>
-      <c r="N60">
-        <v>0.96</v>
-      </c>
-      <c r="O60">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="P60" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q60">
-        <v>1173</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17">
-      <c r="J61" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="K61">
-        <v>0.00880503144654088</v>
-      </c>
-      <c r="L61">
+      <c r="N63">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="O63">
+        <v>0.4399999999999999</v>
+      </c>
+      <c r="P63" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q63">
+        <v>2418</v>
+      </c>
+    </row>
+    <row r="64" spans="10:17">
+      <c r="J64" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K64">
+        <v>0.005857740585774059</v>
+      </c>
+      <c r="L64">
         <v>14</v>
       </c>
-      <c r="M61">
+      <c r="M64">
         <v>18</v>
       </c>
-      <c r="N61">
+      <c r="N64">
         <v>0.78</v>
       </c>
-      <c r="O61">
+      <c r="O64">
         <v>0.22</v>
       </c>
-      <c r="P61" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q61">
-        <v>1576</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17">
-      <c r="J62" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="K62">
-        <v>0.008636875704093128</v>
-      </c>
-      <c r="L62">
-        <v>23</v>
-      </c>
-      <c r="M62">
-        <v>33</v>
-      </c>
-      <c r="N62">
-        <v>0.7</v>
-      </c>
-      <c r="O62">
-        <v>0.3</v>
-      </c>
-      <c r="P62" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q62">
-        <v>2640</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17">
-      <c r="J63" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="K63">
-        <v>0.00794646591384358</v>
-      </c>
-      <c r="L63">
-        <v>19</v>
-      </c>
-      <c r="M63">
-        <v>22</v>
-      </c>
-      <c r="N63">
-        <v>0.86</v>
-      </c>
-      <c r="O63">
-        <v>0.14</v>
-      </c>
-      <c r="P63" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q63">
-        <v>2372</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17">
-      <c r="J64" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K64">
-        <v>0.004705144291091593</v>
-      </c>
-      <c r="L64">
-        <v>15</v>
-      </c>
-      <c r="M64">
-        <v>28</v>
-      </c>
-      <c r="N64">
-        <v>0.54</v>
-      </c>
-      <c r="O64">
-        <v>0.46</v>
-      </c>
       <c r="P64" t="b">
         <v>1</v>
       </c>
       <c r="Q64">
-        <v>3173</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>52</v>
+        <v>117</v>
       </c>
       <c r="K65">
-        <v>0.004644681839294009</v>
+        <v>0.00533082470994042</v>
       </c>
       <c r="L65">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M65">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="N65">
-        <v>0.48</v>
+        <v>0.59</v>
       </c>
       <c r="O65">
-        <v>0.52</v>
+        <v>0.41</v>
       </c>
       <c r="P65" t="b">
         <v>1</v>
       </c>
       <c r="Q65">
-        <v>4286</v>
+        <v>3172</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K66">
-        <v>0.004475578906402024</v>
+        <v>0.004826060727930827</v>
       </c>
       <c r="L66">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M66">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N66">
-        <v>0.47</v>
+        <v>0.51</v>
       </c>
       <c r="O66">
-        <v>0.53</v>
+        <v>0.49</v>
       </c>
       <c r="P66" t="b">
         <v>1</v>
       </c>
       <c r="Q66">
-        <v>5116</v>
+        <v>4949</v>
       </c>
     </row>
     <row r="67" spans="10:17">
@@ -3583,25 +3562,51 @@
         <v>51</v>
       </c>
       <c r="K67">
-        <v>0.004430124848973017</v>
+        <v>0.003947979563399907</v>
       </c>
       <c r="L67">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="M67">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="N67">
-        <v>0.42</v>
+        <v>0.44</v>
       </c>
       <c r="O67">
-        <v>0.5800000000000001</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="P67" t="b">
         <v>1</v>
       </c>
       <c r="Q67">
-        <v>4944</v>
+        <v>4289</v>
+      </c>
+    </row>
+    <row r="68" spans="10:17">
+      <c r="J68" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K68">
+        <v>0.003305463737118413</v>
+      </c>
+      <c r="L68">
+        <v>17</v>
+      </c>
+      <c r="M68">
+        <v>39</v>
+      </c>
+      <c r="N68">
+        <v>0.44</v>
+      </c>
+      <c r="O68">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="P68" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q68">
+        <v>5126</v>
       </c>
     </row>
   </sheetData>
